--- a/legendre_out/DATA/p2/p2IntegrandSplinePoints3.000000.xlsx
+++ b/legendre_out/DATA/p2/p2IntegrandSplinePoints3.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>6.476108127065375e-10</v>
+        <v>6.359635667976457e-10</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>6.46076380115663e-10</v>
+        <v>6.51952579864205e-10</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>6.510578034834112e-10</v>
+        <v>6.703956712698408e-10</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>6.620713306268437e-10</v>
+        <v>6.911613176117708e-10</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>6.786332093630373e-10</v>
+        <v>7.141179954872833e-10</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>7.002596875090673e-10</v>
+        <v>7.391341814936446e-10</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>7.264670128820459e-10</v>
+        <v>7.660783522281576e-10</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>7.567714332989791e-10</v>
+        <v>7.948189842880177e-10</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>7.906891965769724e-10</v>
+        <v>8.252245542705246e-10</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>8.27736550533152e-10</v>
+        <v>8.571635387729876e-10</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>8.674297429844953e-10</v>
+        <v>8.905044143925891e-10</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>9.092850217481233e-10</v>
+        <v>9.251156577266356e-10</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>9.528186346411691e-10</v>
+        <v>9.608657453724412e-10</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>9.975468294805933e-10</v>
+        <v>9.97623153927178e-10</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>1.042985854083527e-09</v>
+        <v>1.035256359988158e-09</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>1.088651956267044e-09</v>
+        <v>1.073633840152648e-09</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>1.13406138384828e-09</v>
+        <v>1.112624071017965e-09</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>1.17873038464419e-09</v>
+        <v>1.152095529181274e-09</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>1.222188304131074e-09</v>
+        <v>1.191916713071695e-09</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>1.264227878297379e-09</v>
+        <v>1.231956560150279e-09</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>1.304885775804209e-09</v>
+        <v>1.272084414476581e-09</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>1.344207864217485e-09</v>
+        <v>1.312169635443489e-09</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>1.382240011103072e-09</v>
+        <v>1.35208158244384e-09</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>1.419028084026887e-09</v>
+        <v>1.391689614870521e-09</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>1.454617950554696e-09</v>
+        <v>1.430863092116265e-09</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>1.489055478252416e-09</v>
+        <v>1.46947137357396e-09</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>1.522386534685956e-09</v>
+        <v>1.50738381863649e-09</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>1.554656987421094e-09</v>
+        <v>1.544469786696593e-09</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>1.585912704023741e-09</v>
+        <v>1.580598637147155e-09</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>1.616199552059763e-09</v>
+        <v>1.615639729381012e-09</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>1.645563399095065e-09</v>
+        <v>1.649462422791044e-09</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>1.674050112695434e-09</v>
+        <v>1.681936076769997e-09</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>1.701705560426776e-09</v>
+        <v>1.712930050710753e-09</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>1.728575609854994e-09</v>
+        <v>1.742313704006187e-09</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>1.754686430180673e-09</v>
+        <v>1.769964009550897e-09</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>1.779932354578833e-09</v>
+        <v>1.79580889542363e-09</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>1.804153607885448e-09</v>
+        <v>1.819797202806046e-09</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>1.827190249963763e-09</v>
+        <v>1.841877836642332e-09</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>1.848882340677117e-09</v>
+        <v>1.86199970187677e-09</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>1.869069939888819e-09</v>
+        <v>1.880111703453613e-09</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>1.887593107462201e-09</v>
+        <v>1.89616274631713e-09</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>1.904291903260522e-09</v>
+        <v>1.910101735411532e-09</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>1.919006387147115e-09</v>
+        <v>1.921877575681089e-09</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>1.931576618985304e-09</v>
+        <v>1.931439172070067e-09</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>1.941842658638364e-09</v>
+        <v>1.938735429522689e-09</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>1.949644565969621e-09</v>
+        <v>1.94371525298322e-09</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>1.954822400842384e-09</v>
+        <v>1.946327547395913e-09</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>1.957216223119961e-09</v>
+        <v>1.946521217705016e-09</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>1.956666092665655e-09</v>
+        <v>1.94424516885478e-09</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>1.953035840640864e-09</v>
+        <v>1.939465257795525e-09</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>1.946494901590686e-09</v>
+        <v>1.932365276164877e-09</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>1.937424720956788e-09</v>
+        <v>1.923280206755129e-09</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>1.926211008897741e-09</v>
+        <v>1.912548073652587e-09</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>1.913239475572101e-09</v>
+        <v>1.90050690094355e-09</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>1.898895831138481e-09</v>
+        <v>1.887494712714364e-09</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>1.88356578575544e-09</v>
+        <v>1.873849533051331e-09</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>1.867635049581555e-09</v>
+        <v>1.859909386040763e-09</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>1.85148933277538e-09</v>
+        <v>1.846012295768959e-09</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>1.835514345495536e-09</v>
+        <v>1.83249628632227e-09</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>1.820095797900577e-09</v>
+        <v>1.819699381786994e-09</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>1.805619400149062e-09</v>
+        <v>1.807959606249429e-09</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>1.792459818841249e-09</v>
+        <v>1.79760428195689e-09</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>1.78072012062445e-09</v>
+        <v>1.788697535284104e-09</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>1.770221620068399e-09</v>
+        <v>1.781030458744388e-09</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>1.760772556902315e-09</v>
+        <v>1.774381474583552e-09</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>1.752181170855451e-09</v>
+        <v>1.768529005047433e-09</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>1.744255701657024e-09</v>
+        <v>1.763251472381838e-09</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>1.736804389036253e-09</v>
+        <v>1.758327298832582e-09</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>1.729635472722387e-09</v>
+        <v>1.753534906645495e-09</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>1.722557192444646e-09</v>
+        <v>1.74865271806639e-09</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>1.715377787932249e-09</v>
+        <v>1.743459155341077e-09</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>1.707905498914444e-09</v>
+        <v>1.73773264071539e-09</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>1.699948565120451e-09</v>
+        <v>1.731251596435141e-09</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>1.6913152262795e-09</v>
+        <v>1.723794444746147e-09</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>1.681813722120806e-09</v>
+        <v>1.715139607894216e-09</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>1.671252292373624e-09</v>
+        <v>1.705065508125189e-09</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>1.65943917676717e-09</v>
+        <v>1.693350567684874e-09</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>1.646182615030657e-09</v>
+        <v>1.679773208819071e-09</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>1.631290846893348e-09</v>
+        <v>1.664111853773633e-09</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>1.614572112084456e-09</v>
+        <v>1.646144924794364e-09</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>1.59583465033321e-09</v>
+        <v>1.625650844127081e-09</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>1.57488670136881e-09</v>
+        <v>1.602408034017571e-09</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>1.551536504920541e-09</v>
+        <v>1.576194916711714e-09</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>1.525592300717605e-09</v>
+        <v>1.546789914455299e-09</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>1.496862328489194e-09</v>
+        <v>1.513971449494101e-09</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>1.465154827964611e-09</v>
+        <v>1.477517944074023e-09</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>1.430278038873049e-09</v>
+        <v>1.437207820440844e-09</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>1.392206505422072e-09</v>
+        <v>1.393047922886271e-09</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>1.351779246237393e-09</v>
+        <v>1.346232466103532e-09</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>1.310115291361656e-09</v>
+        <v>1.298340265257004e-09</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>1.268333814497401e-09</v>
+        <v>1.250950332830429e-09</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>1.227553989347174e-09</v>
+        <v>1.205641681307553e-09</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>1.188894989613678e-09</v>
+        <v>1.163993323172297e-09</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>1.153475988999453e-09</v>
+        <v>1.127584270908405e-09</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>1.122416161207057e-09</v>
+        <v>1.097993536999644e-09</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>1.096834679939169e-09</v>
+        <v>1.076800133929896e-09</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>1.07785071889834e-09</v>
+        <v>1.065583074182921e-09</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>1.066583451787165e-09</v>
+        <v>1.06592137024252e-09</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>1.064152052308243e-09</v>
+        <v>1.079394034592524e-09</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>1.071675694164177e-09</v>
+        <v>1.107580079716701e-09</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>3.995070263870594e-10</v>
+        <v>4.01928583250415e-10</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>5.177712060591075e-10</v>
+        <v>5.224663417220718e-10</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>4.953505876275426e-10</v>
+        <v>5.074007997555421e-10</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>6.812556256954109e-10</v>
+        <v>6.863258445765215e-10</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>8.579730705046814e-10</v>
+        <v>8.540915529836854e-10</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>8.777557442046493e-10</v>
+        <v>8.743060176515326e-10</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>1.443906562415335e-09</v>
+        <v>1.449330528019303e-09</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>3.828282214442832e-09</v>
+        <v>3.84186393391809e-09</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>7.740904174583002e-09</v>
+        <v>7.761743612510139e-09</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>9.649739841648661e-09</v>
+        <v>9.685822069610926e-09</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>1.021928655475781e-08</v>
+        <v>1.024109508583671e-08</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>1.028314002799407e-08</v>
+        <v>1.026532053814988e-08</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>9.95827831319813e-09</v>
+        <v>9.932260283977165e-09</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>9.472578342169306e-09</v>
+        <v>9.469419513677587e-09</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>9.10205925965524e-09</v>
+        <v>9.118198173020301e-09</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>8.876296885547017e-09</v>
+        <v>8.882144408904592e-09</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>8.789527429818903e-09</v>
+        <v>8.763521209955153e-09</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>8.968038724922956e-09</v>
+        <v>8.976063826760377e-09</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>8.785809917338906e-09</v>
+        <v>8.808047225458323e-09</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>8.578368248423586e-09</v>
+        <v>8.566758408236574e-09</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>8.696124356867523e-09</v>
+        <v>8.674557970084806e-09</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>8.666728556529887e-09</v>
+        <v>8.649753443929131e-09</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>8.532509023088065e-09</v>
+        <v>8.524419428820508e-09</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>8.400747864670715e-09</v>
+        <v>8.399144390926998e-09</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>8.256884106890909e-09</v>
+        <v>8.259009111348816e-09</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>8.073157191785434e-09</v>
+        <v>8.076581117981498e-09</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>7.822465233936658e-09</v>
+        <v>7.825125163340711e-09</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>7.484426945225145e-09</v>
+        <v>7.485019953498868e-09</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>7.042590043471383e-09</v>
+        <v>7.040803165009775e-09</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>6.481325338447843e-09</v>
+        <v>6.477836320854371e-09</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>5.815077353888842e-09</v>
+        <v>5.811471566945003e-09</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>5.097355642736937e-09</v>
+        <v>5.096018145157468e-09</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>4.384280359648071e-09</v>
+        <v>4.388388686217689e-09</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>3.725304122174028e-09</v>
+        <v>3.738200859235794e-09</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>3.125907928590464e-09</v>
+        <v>3.146962923535843e-09</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>2.573837509007002e-09</v>
+        <v>2.596794446128015e-09</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>2.067870481045339e-09</v>
+        <v>2.0842434679997e-09</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>1.62965560541667e-09</v>
+        <v>1.635748661339674e-09</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>1.282629420461326e-09</v>
+        <v>1.28023663317742e-09</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>1.029690492609891e-09</v>
+        <v>1.022788438475073e-09</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>8.549015636940603e-10</v>
+        <v>8.466158532720234e-10</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>7.416282501535019e-10</v>
+        <v>7.341212582152403e-10</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>6.732361684280166e-10</v>
+        <v>6.677070339518259e-10</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>6.330909349572475e-10</v>
+        <v>6.297755611287245e-10</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>6.05202600401016e-10</v>
+        <v>6.034185748586635e-10</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>5.824342376471188e-10</v>
+        <v>5.811979318237626e-10</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>5.64081452007319e-10</v>
+        <v>5.625564003863922e-10</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>5.495846514700327e-10</v>
+        <v>5.470916450467828e-10</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>5.383842440236835e-10</v>
+        <v>5.344013303051709e-10</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>5.299206376567088e-10</v>
+        <v>5.240831206618097e-10</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>5.236342403575307e-10</v>
+        <v>5.157346806169347e-10</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>5.189654601145769e-10</v>
+        <v>5.089536746707874e-10</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>5.153547049162734e-10</v>
+        <v>5.033377673236072e-10</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>5.123160782995817e-10</v>
+        <v>4.985356352289777e-10</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>5.097287715833638e-10</v>
+        <v>4.944486692719748e-10</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>5.075848250689797e-10</v>
+        <v>4.910563745482874e-10</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>5.05876312095033e-10</v>
+        <v>4.883382790220292e-10</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>5.04595306000125e-10</v>
+        <v>4.862739106573095e-10</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>5.037338801228576e-10</v>
+        <v>4.848427974182394e-10</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>5.032841078018328e-10</v>
+        <v>4.840244672689294e-10</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>5.032380623756531e-10</v>
+        <v>4.837984481734913e-10</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>5.0358781718292e-10</v>
+        <v>4.841442680960352e-10</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>5.043254455622359e-10</v>
+        <v>4.850414550006728e-10</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>5.054430208522026e-10</v>
+        <v>4.864695368515142e-10</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>5.069326163914222e-10</v>
+        <v>4.884080416126705e-10</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>5.087863055184965e-10</v>
+        <v>4.908364972482526e-10</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>5.109961615720287e-10</v>
+        <v>4.937344317223727e-10</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>5.135542578906189e-10</v>
+        <v>4.970813729991395e-10</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>5.164526678128702e-10</v>
+        <v>5.008568490426647e-10</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>5.196834646773857e-10</v>
+        <v>5.050403878170614e-10</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>5.23238721822765e-10</v>
+        <v>5.096115172864366e-10</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>5.271105125876113e-10</v>
+        <v>5.14549765414903e-10</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>5.312909103105267e-10</v>
+        <v>5.198346601665716e-10</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>5.357719883301149e-10</v>
+        <v>5.254457295055559e-10</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>5.405458199849746e-10</v>
+        <v>5.313625013959616e-10</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>5.456044786137096e-10</v>
+        <v>5.375645038019025e-10</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>5.509400375549239e-10</v>
+        <v>5.440312646874919e-10</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>5.565445701472152e-10</v>
+        <v>5.507423120168351e-10</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>5.624101497291877e-10</v>
+        <v>5.576771737540462e-10</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>5.685288496394434e-10</v>
+        <v>5.648153778632355e-10</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>5.748927432165872e-10</v>
+        <v>5.721364523085177e-10</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>5.814939037992157e-10</v>
+        <v>5.79619925053997e-10</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>5.883244047259334e-10</v>
+        <v>5.872453240637874e-10</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>5.953763193353425e-10</v>
+        <v>5.949921773020001e-10</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>6.026417209660483e-10</v>
+        <v>6.028400127327494e-10</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>6.101126829566463e-10</v>
+        <v>6.10768358320139e-10</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>6.177812786457418e-10</v>
+        <v>6.187567420282836e-10</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>6.256395851204857e-10</v>
+        <v>6.267846970842992e-10</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>6.336930731586232e-10</v>
+        <v>6.348505616147913e-10</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>6.419906899277615e-10</v>
+        <v>6.430137151102438e-10</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>6.505901887024113e-10</v>
+        <v>6.513459009390425e-10</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>6.595493227570714e-10</v>
+        <v>6.599188624695624e-10</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>6.689258453662525e-10</v>
+        <v>6.688043430701895e-10</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>6.787775098044613e-10</v>
+        <v>6.780740861093063e-10</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>6.891620693462093e-10</v>
+        <v>6.877998349552994e-10</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>7.001372772659938e-10</v>
+        <v>6.980533329765423e-10</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>7.117608868383263e-10</v>
+        <v>7.089063235414217e-10</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>7.240906513377136e-10</v>
+        <v>7.204305500183199e-10</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>7.371843240386683e-10</v>
+        <v>7.32697755775625e-10</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>7.510996582156853e-10</v>
+        <v>7.457796841817082e-10</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>7.658944071432772e-10</v>
+        <v>7.59748078604957e-10</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>7.816263240959581e-10</v>
+        <v>7.746746824137609e-10</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>7.983531623482203e-10</v>
+        <v>7.906312389764888e-10</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>8.161326751745779e-10</v>
+        <v>8.076894916615293e-10</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>8.350226158495369e-10</v>
+        <v>8.259211838372648e-10</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>8.55080737647614e-10</v>
+        <v>8.453980588720866e-10</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>8.763647938432976e-10</v>
+        <v>8.661918601343597e-10</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>8.989325377111034e-10</v>
+        <v>8.883743309924748e-10</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>9.228417225255489e-10</v>
+        <v>9.120172148148251e-10</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>9.481501015611195e-10</v>
+        <v>9.371922549697717e-10</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>9.749154280923324e-10</v>
+        <v>9.639711948257074e-10</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>1.003195455393694e-09</v>
+        <v>9.924257777510139e-10</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>1.033047936739726e-09</v>
+        <v>1.022627747114088e-09</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>1.064530625404906e-09</v>
+        <v>1.054648846283285e-09</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>1.097755213763022e-09</v>
+        <v>1.088609793334081e-09</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>1.133121583729346e-09</v>
+        <v>1.124892971786316e-09</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>1.171125470868109e-09</v>
+        <v>1.163967796727727e-09</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>1.212262675295484e-09</v>
+        <v>1.206303741856832e-09</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>1.257028997127626e-09</v>
+        <v>1.252370280872133e-09</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>1.305920236480717e-09</v>
+        <v>1.302636887472153e-09</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>1.359432193470868e-09</v>
+        <v>1.35757303535535e-09</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>1.418060668214257e-09</v>
+        <v>1.417648198220247e-09</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>1.482301460827071e-09</v>
+        <v>1.483331849765375e-09</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>1.552650371425409e-09</v>
+        <v>1.555093463689177e-09</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>1.629603200125456e-09</v>
+        <v>1.633402513690183e-09</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>1.713655747043367e-09</v>
+        <v>1.718728473466895e-09</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>1.805303812295343e-09</v>
+        <v>1.811540816717857e-09</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>1.905043195997457e-09</v>
+        <v>1.912309017141486e-09</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>2.013369698265907e-09</v>
+        <v>2.021502548436326e-09</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>2.130779119216903e-09</v>
+        <v>2.139590884300932e-09</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>2.257767258966496e-09</v>
+        <v>2.2670434984337e-09</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>2.395136685909995e-09</v>
+        <v>2.404640594445595e-09</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>2.5469486448345e-09</v>
+        <v>2.556463135181155e-09</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>2.71922938763811e-09</v>
+        <v>2.72858246687554e-09</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>2.91803226332841e-09</v>
+        <v>2.927097382807931e-09</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>3.149410620913212e-09</v>
+        <v>3.158106676257727e-09</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>3.419417809400256e-09</v>
+        <v>3.427709140504262e-09</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>3.734107177797435e-09</v>
+        <v>3.74200356882702e-09</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>4.099532075112205e-09</v>
+        <v>4.107088754505045e-09</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>4.521745850352438e-09</v>
+        <v>4.529063490817806e-09</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>5.006801852526108e-09</v>
+        <v>5.014026571044862e-09</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>5.560753430640519e-09</v>
+        <v>5.568076788465114e-09</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>6.189653933703615e-09</v>
+        <v>6.197312936358092e-09</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>6.899556710723473e-09</v>
+        <v>6.907833808003468e-09</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>7.695026003915023e-09</v>
+        <v>7.704243279928585e-09</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>8.562385032976871e-09</v>
+        <v>8.57283303623462e-09</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>9.475731334904491e-09</v>
+        <v>9.487621378102438e-09</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>1.040893711947152e-08</v>
+        <v>1.042240040034527e-08</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>1.13358745964503e-08</v>
+        <v>1.135096219777507e-08</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>1.223041597561446e-08</v>
+        <v>1.224709886520505e-08</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>1.30664334667372e-08</v>
+        <v>1.308460249744802e-08</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>1.381779927959204e-08</v>
+        <v>1.38372651893171e-08</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>1.445838562395151e-08</v>
+        <v>1.447887903562441e-08</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>1.496206470958916e-08</v>
+        <v>1.49832361311831e-08</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>1.530270874627831e-08</v>
+        <v>1.532412857080611e-08</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>1.545418994379185e-08</v>
+        <v>1.547534844930591e-08</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>1.539038051190318e-08</v>
+        <v>1.541068786149551e-08</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>1.508759395254243e-08</v>
+        <v>1.510639033555995e-08</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>1.455687495661308e-08</v>
+        <v>1.457357486326428e-08</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>1.383511371813123e-08</v>
+        <v>1.384931330263453e-08</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>1.295981579769448e-08</v>
+        <v>1.297129543453311e-08</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>1.196848675590014e-08</v>
+        <v>1.197721103982217e-08</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>1.089863215334691e-08</v>
+        <v>1.090474989936522e-08</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>9.787757550632166e-09</v>
+        <v>9.79160179402446e-09</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>8.673368508353678e-09</v>
+        <v>8.675456504662488e-09</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>7.592970587108768e-09</v>
+        <v>7.594003812141443e-09</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>6.58406934749621e-09</v>
+        <v>6.584933497324919e-09</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>5.684170350113296e-09</v>
+        <v>5.685935341075033e-09</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>4.930779155557515e-09</v>
+        <v>4.934699124254094e-09</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>4.361401324427344e-09</v>
+        <v>4.368914627725404e-09</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>4.013542417320199e-09</v>
+        <v>4.026271632351196e-09</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>3.913204021216845e-09</v>
+        <v>3.93276879048375e-09</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>3.925408888524809e-09</v>
+        <v>3.950807000769264e-09</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>3.796726169652566e-09</v>
+        <v>3.822406471704114e-09</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>3.271401525987944e-09</v>
+        <v>3.287229436480867e-09</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>2.32111805235638e-09</v>
+        <v>2.317854245995857e-09</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>1.514533995808015e-09</v>
+        <v>1.498193097488593e-09</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>1.181579430815962e-09</v>
+        <v>1.166180935100539e-09</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>1.10241631504806e-09</v>
+        <v>1.094297955905567e-09</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>1.038866470194805e-09</v>
+        <v>1.036367663386202e-09</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>9.381720433382078e-10</v>
+        <v>9.38112112005321e-10</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>8.136559317829884e-10</v>
+        <v>8.136428393564054e-10</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>6.787220685122666e-10</v>
+        <v>6.771552499403516e-10</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>5.46575605862615e-10</v>
+        <v>5.426356235629416e-10</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>4.26501993389155e-10</v>
+        <v>4.19946565701929e-10</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>3.241983639169465e-10</v>
+        <v>3.151756380611747e-10</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>2.452295089890779e-10</v>
+        <v>2.342711743526656e-10</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>1.951602201487402e-10</v>
+        <v>1.83181508288494e-10</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>1.795552889390102e-10</v>
+        <v>1.678549735806349e-10</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>2.039795069030055e-10</v>
+        <v>1.942399039411055e-10</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>2.739976655838865e-10</v>
+        <v>2.682846330819679e-10</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>3.951745565247103e-10</v>
+        <v>3.95937494715175e-10</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>5.824949478854865e-10</v>
+        <v>5.921188559590918e-10</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>9.603241358939789e-10</v>
+        <v>9.759282970808608e-10</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>1.65953343152849e-09</v>
+        <v>1.671862424991509e-09</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>2.49459949038697e-09</v>
+        <v>2.49910100305599e-09</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>3.186681197130159e-09</v>
+        <v>3.186823298839807e-09</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>3.642816962098319e-09</v>
+        <v>3.645270806253283e-09</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>4.006884804463746e-09</v>
+        <v>4.015386292525928e-09</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>4.438130675880796e-09</v>
+        <v>4.453082156062446e-09</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>5.095786112347932e-09</v>
+        <v>5.114256593399299e-09</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>6.062973608912347e-09</v>
+        <v>6.079827475517816e-09</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>7.169047350321627e-09</v>
+        <v>7.180707808221511e-09</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>8.190535718238258e-09</v>
+        <v>8.195768213603296e-09</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>8.903967094324955e-09</v>
+        <v>8.903879313756309e-09</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>9.11028547989079e-09</v>
+        <v>9.10817688705433e-09</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>8.938777779476577e-09</v>
+        <v>8.938116173591041e-09</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>8.753815363139362e-09</v>
+        <v>8.756788150644962e-09</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>8.924878377955531e-09</v>
+        <v>8.932361089234166e-09</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>9.724848642410919e-09</v>
+        <v>9.7367316686409e-09</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>1.101187971480797e-08</v>
+        <v>1.102847109628633e-08</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>1.253284749631471e-08</v>
+        <v>1.255524931107823e-08</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>1.403462652733693e-08</v>
+        <v>1.406473489576484e-08</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>1.526409198719366e-08</v>
+        <v>1.530459706690357e-08</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>1.603752604493462e-08</v>
+        <v>1.609135756190046e-08</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>1.64315792940897e-08</v>
+        <v>1.649982654767549e-08</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>1.658394466093026e-08</v>
+        <v>1.666536887741358e-08</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>1.663231507172726e-08</v>
+        <v>1.672334940429919e-08</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>1.670990048168212e-08</v>
+        <v>1.680477694931347e-08</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>1.687953039015028e-08</v>
+        <v>1.697227275578066e-08</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>1.714811524626412e-08</v>
+        <v>1.723412240887016e-08</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>1.752102286078589e-08</v>
+        <v>1.759711253640499e-08</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>1.80036210444773e-08</v>
+        <v>1.806802976620763e-08</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>1.860127760810056e-08</v>
+        <v>1.865366072610104e-08</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>1.931936036241772e-08</v>
+        <v>1.936079204390803e-08</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>2.016323711819124e-08</v>
+        <v>2.019621034745183e-08</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>2.113816712170564e-08</v>
+        <v>2.116658815083497e-08</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>2.223526855850237e-08</v>
+        <v>2.226373409106622e-08</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>2.341763785369389e-08</v>
+        <v>2.345000272030656e-08</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>2.464507268430421e-08</v>
+        <v>2.468428122804595e-08</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>2.587737072735892e-08</v>
+        <v>2.592545680377594e-08</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>2.70743296598831e-08</v>
+        <v>2.713241663698758e-08</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>2.819574715890232e-08</v>
+        <v>2.82640479171724e-08</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>2.920142090144063e-08</v>
+        <v>2.92792378338204e-08</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>3.005114856452364e-08</v>
+        <v>3.013687357642316e-08</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>3.070478554422338e-08</v>
+        <v>3.079590184329461e-08</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>3.113412263920392e-08</v>
+        <v>3.122757483321106e-08</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>3.133743376864097e-08</v>
+        <v>3.143044906494876e-08</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>3.131655362077788e-08</v>
+        <v>3.14067522401427e-08</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>3.107331688385783e-08</v>
+        <v>3.115871206042773e-08</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>3.060955824612441e-08</v>
+        <v>3.068855622743911e-08</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>2.992711239582093e-08</v>
+        <v>2.999851244281178e-08</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>2.902781402119027e-08</v>
+        <v>2.909080840818029e-08</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>2.791349781047663e-08</v>
+        <v>2.796767182518049e-08</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>2.65876672512084e-08</v>
+        <v>2.663298957820372e-08</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>2.507920674557446e-08</v>
+        <v>2.511588320767327e-08</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>2.343675119661368e-08</v>
+        <v>2.346511094173924e-08</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>2.170945596991491e-08</v>
+        <v>2.172994847191358e-08</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>1.994647643106479e-08</v>
+        <v>1.995967148970602e-08</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>1.819696794564989e-08</v>
+        <v>1.82035556866262e-08</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>1.651008587925915e-08</v>
+        <v>1.651087675418617e-08</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>1.493498559747914e-08</v>
+        <v>1.493091038389556e-08</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>1.35208224658972e-08</v>
+        <v>1.351293226726481e-08</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>1.230447499982823e-08</v>
+        <v>1.229390843261682e-08</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>1.127219119300674e-08</v>
+        <v>1.12600390641179e-08</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>1.03971688923224e-08</v>
+        <v>1.038443931934834e-08</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>9.652605931305974e-09</v>
+        <v>9.640224342493808e-09</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>9.011700143487962e-09</v>
+        <v>9.000509277739693e-09</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>8.447649362399688e-09</v>
+        <v>8.438409269272226e-09</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>7.933651421571618e-09</v>
+        <v>7.92703946127677e-09</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>7.442904154534282e-09</v>
+        <v>7.439514997938768e-09</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>6.948696810218744e-09</v>
+        <v>6.94904213595872e-09</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>6.441463805888851e-09</v>
+        <v>6.445915493507372e-09</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>5.948849396808762e-09</v>
+        <v>5.957516239884969e-09</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>5.503374751132918e-09</v>
+        <v>5.516086298670194e-09</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>5.137561037015076e-09</v>
+        <v>5.153867593441042e-09</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>4.883929422609219e-09</v>
+        <v>4.903102047775738e-09</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>4.775001076069319e-09</v>
+        <v>4.796031585252493e-09</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>4.843297165549473e-09</v>
+        <v>4.864898129449641e-09</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>5.121338859203577e-09</v>
+        <v>5.141943603945322e-09</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>5.641001984111572e-09</v>
+        <v>5.658769559851098e-09</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>6.398011284633967e-09</v>
+        <v>6.411104799828949e-09</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>7.33348681239881e-09</v>
+        <v>7.340493846037784e-09</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>8.384014631700702e-09</v>
+        <v>8.383982141360012e-09</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>9.486180806834449e-09</v>
+        <v>9.478615128678239e-09</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>1.057657140209334e-08</v>
+        <v>1.056143825087357e-08</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>1.159177248177219e-08</v>
+        <v>1.156949695082862e-08</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>1.246837011016564e-08</v>
+        <v>1.243983667142583e-08</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>1.31429503515672e-08</v>
+        <v>1.310950285554654e-08</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>1.356420254104771e-08</v>
+        <v>1.352755852300026e-08</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>1.374415967788766e-08</v>
+        <v>1.370596187057456e-08</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>1.371550770013825e-08</v>
+        <v>1.367717780642763e-08</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>1.351094391185134e-08</v>
+        <v>1.347368252424444e-08</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>1.316316561707883e-08</v>
+        <v>1.312795221771001e-08</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>1.270487011987251e-08</v>
+        <v>1.26724630805093e-08</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>1.216875472428399e-08</v>
+        <v>1.213969130632703e-08</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>1.158751673436557e-08</v>
+        <v>1.156211308884866e-08</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>1.099385299155164e-08</v>
+        <v>1.097220416215568e-08</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>1.041425970362745e-08</v>
+        <v>1.039628002440807e-08</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>9.853487925738754e-09</v>
+        <v>9.839052692897632e-09</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>9.311524567077985e-09</v>
+        <v>9.300501077834238e-09</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>8.788356536837858e-09</v>
+        <v>8.780604089428037e-09</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>8.283970744210867e-09</v>
+        <v>8.279340637888965e-09</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>7.798354098390178e-09</v>
+        <v>7.796689633427618e-09</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>7.331493508568272e-09</v>
+        <v>7.332629986253918e-09</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>6.883375883937864e-09</v>
+        <v>6.887140606578015e-09</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>6.453988133691479e-09</v>
+        <v>6.46020040460987e-09</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>6.043317167022214e-09</v>
+        <v>6.051788290560019e-09</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>5.651349893122586e-09</v>
+        <v>5.661883174638412e-09</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>5.278073221185144e-09</v>
+        <v>5.290463967055042e-09</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>4.923474060402939e-09</v>
+        <v>4.937509578020388e-09</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>4.58753931996851e-09</v>
+        <v>4.602998917744432e-09</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>4.270255909074434e-09</v>
+        <v>4.286910896437185e-09</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>3.971610736913711e-09</v>
+        <v>3.989224424309082e-09</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>3.691590712678901e-09</v>
+        <v>3.709918411570124e-09</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>3.430115106371428e-09</v>
+        <v>3.448906398924658e-09</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>3.186651342299161e-09</v>
+        <v>3.205665243415932e-09</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>2.960481710370741e-09</v>
+        <v>2.979492880016234e-09</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>2.750887941179326e-09</v>
+        <v>2.769686703150623e-09</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>2.557151765318187e-09</v>
+        <v>2.575544107244272e-09</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>2.378554913380521e-09</v>
+        <v>2.396362486722276e-09</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>2.21437911595976e-09</v>
+        <v>2.231439236009968e-09</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>2.06390610364909e-09</v>
+        <v>2.080071749532437e-09</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>1.926417607041726e-09</v>
+        <v>1.941557421714795e-09</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>1.801195356731062e-09</v>
+        <v>1.815193646982339e-09</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>1.687521083310308e-09</v>
+        <v>1.700277819760178e-09</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>1.584676517372688e-09</v>
+        <v>1.596107334473438e-09</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>1.491943389511569e-09</v>
+        <v>1.501979585547385e-09</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>1.408603430320173e-09</v>
+        <v>1.417191967407144e-09</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>1.333938370391741e-09</v>
+        <v>1.341041874477853e-09</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>1.267229940319639e-09</v>
+        <v>1.272826701184783e-09</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>1.20775987069702e-09</v>
+        <v>1.211843841952983e-09</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>1.154809892117217e-09</v>
+        <v>1.157390691207689e-09</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>1.107661735173542e-09</v>
+        <v>1.108764643374114e-09</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>1.065597130459181e-09</v>
+        <v>1.065263092877342e-09</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>1.027897808567482e-09</v>
+        <v>1.026183434142626e-09</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>9.938455000916496e-10</v>
+        <v>9.908230615950653e-10</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>9.627219356249893e-10</v>
+        <v>9.5847936965987e-10</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>9.338088457607979e-10</v>
+        <v>9.284497527622374e-10</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>9.063879610922951e-10</v>
+        <v>9.000316053272852e-10</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>8.797410122127784e-10</v>
+        <v>8.725223217802137e-10</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>8.531888484418918e-10</v>
+        <v>8.452571183011245e-10</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>8.265084172337445e-10</v>
+        <v>8.180121873866989e-10</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>7.997715618415206e-10</v>
+        <v>7.908488401373311e-10</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>7.730550692341921e-10</v>
+        <v>7.638331674615591e-10</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>7.46435726380658e-10</v>
+        <v>7.370312602678473e-10</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>7.199903202498901e-10</v>
+        <v>7.105092094647347e-10</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>6.937956378108596e-10</v>
+        <v>6.843331059607585e-10</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>6.679284660324667e-10</v>
+        <v>6.585690406643854e-10</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>6.424655918836829e-10</v>
+        <v>6.332831044841533e-10</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>6.174838023334779e-10</v>
+        <v>6.085413883285977e-10</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>5.930598843507544e-10</v>
+        <v>5.844099831061881e-10</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>5.69270624904504e-10</v>
+        <v>5.609549797254819e-10</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>5.46192810963631e-10</v>
+        <v>5.382424690949503e-10</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>5.23903229497105e-10</v>
+        <v>5.16338542123129e-10</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>5.024786674738926e-10</v>
+        <v>4.953092897185506e-10</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>4.819959118629024e-10</v>
+        <v>4.752208027896908e-10</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>4.625317496331022e-10</v>
+        <v>4.56139172245083e-10</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>4.441613008367541e-10</v>
+        <v>4.381290056062679e-10</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>4.269115231925298e-10</v>
+        <v>4.212120507972135e-10</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>4.107550259457094e-10</v>
+        <v>4.05361691106618e-10</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>3.956615085307693e-10</v>
+        <v>3.905487203863573e-10</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>3.816006703821447e-10</v>
+        <v>3.767439324882671e-10</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>3.685422109343237e-10</v>
+        <v>3.639181212642349e-10</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>3.564558296217461e-10</v>
+        <v>3.520420805661004e-10</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>3.453112258788866e-10</v>
+        <v>3.41086604245738e-10</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>3.350780991402168e-10</v>
+        <v>3.310224861550189e-10</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>3.257261488401813e-10</v>
+        <v>3.21820520145788e-10</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>3.172250744132522e-10</v>
+        <v>3.134515000699168e-10</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>3.095445752938992e-10</v>
+        <v>3.058862197792748e-10</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>3.026543509165711e-10</v>
+        <v>2.990954731257108e-10</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>2.965241007157381e-10</v>
+        <v>2.930500539610946e-10</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>2.911235241258675e-10</v>
+        <v>2.877207561372933e-10</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>2.864223205814124e-10</v>
+        <v>2.830783735061598e-10</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>2.823901895168408e-10</v>
+        <v>2.790936999195619e-10</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>2.789968303666182e-10</v>
+        <v>2.757375292293651e-10</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>2.762119425652015e-10</v>
+        <v>2.729806552874258e-10</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>2.740052255470584e-10</v>
+        <v>2.707938719456116e-10</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>2.72346378746648e-10</v>
+        <v>2.691479730557812e-10</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>2.712051015984351e-10</v>
+        <v>2.680137524697995e-10</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>2.70551093536883e-10</v>
+        <v>2.673620040395295e-10</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>2.703540539964533e-10</v>
+        <v>2.671635216168325e-10</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>2.705836824116097e-10</v>
+        <v>2.67389099053572e-10</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>2.712096782168142e-10</v>
+        <v>2.680095302016097e-10</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>2.722017408465308e-10</v>
+        <v>2.689956089128096e-10</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>2.735295697352219e-10</v>
+        <v>2.703181290390338e-10</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>2.751628643173488e-10</v>
+        <v>2.719478844321432e-10</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>2.770713240273771e-10</v>
+        <v>2.738556689440035e-10</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>2.792246482997683e-10</v>
+        <v>2.760122764264759e-10</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>2.81592536568983e-10</v>
+        <v>2.783885007314206e-10</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>2.841446882694884e-10</v>
+        <v>2.809551357107048e-10</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>2.868508028357428e-10</v>
+        <v>2.836829752161864e-10</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>2.896805797022136e-10</v>
+        <v>2.865428130997328e-10</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>2.926068696079996e-10</v>
+        <v>2.895085572934315e-10</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>2.956506684498198e-10</v>
+        <v>2.926016921780459e-10</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>2.988705485213696e-10</v>
+        <v>2.958808346645994e-10</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>3.023260788830938e-10</v>
+        <v>2.994055866566753e-10</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>3.060768285954363e-10</v>
+        <v>3.032355500578566e-10</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>3.101823667188515e-10</v>
+        <v>3.074303267717365e-10</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>3.147022623137836e-10</v>
+        <v>3.120495187018982e-10</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>3.196960844406752e-10</v>
+        <v>3.171527277519232e-10</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>3.252234021599829e-10</v>
+        <v>3.22799555825407e-10</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>3.313437845321442e-10</v>
+        <v>3.29049604825926e-10</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>3.381168006176173e-10</v>
+        <v>3.359624766570775e-10</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>3.456020194768447e-10</v>
+        <v>3.435977732224426e-10</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>3.53859010170266e-10</v>
+        <v>3.520150964255999e-10</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>3.629473417583436e-10</v>
+        <v>3.612740481701509e-10</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>3.729265833015178e-10</v>
+        <v>3.714342303596748e-10</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>3.83856303860226e-10</v>
+        <v>3.825552448977474e-10</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>3.95796072494935e-10</v>
+        <v>3.946966936879752e-10</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>4.088054582660832e-10</v>
+        <v>4.079181786339351e-10</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>4.229440302341047e-10</v>
+        <v>4.222793016391998e-10</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>4.382713574594725e-10</v>
+        <v>4.378396646073819e-10</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>4.54847009002622e-10</v>
+        <v>4.546588694420551e-10</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>4.727305539239837e-10</v>
+        <v>4.72796518046789e-10</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>4.919987894479795e-10</v>
+        <v>4.923292681151989e-10</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>5.129137860650383e-10</v>
+        <v>5.135171968815744e-10</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>5.358503862338713e-10</v>
+        <v>5.367320252245861e-10</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>5.611850303434545e-10</v>
+        <v>5.623470559653064e-10</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>5.892941587826766e-10</v>
+        <v>5.907355919247197e-10</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>6.20554211940523e-10</v>
+        <v>6.222709359239081e-10</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>6.553416302059053e-10</v>
+        <v>6.573263907838786e-10</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>6.94032853967721e-10</v>
+        <v>6.96275259325625e-10</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>7.370043236149754e-10</v>
+        <v>7.394908443702487e-10</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>7.846324795365701e-10</v>
+        <v>7.873464487387476e-10</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>8.372937621213906e-10</v>
+        <v>8.402153752521025e-10</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>8.953646117584666e-10</v>
+        <v>8.9847092673144e-10</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>9.592214688366882e-10</v>
+        <v>9.624864059977455e-10</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>1.029219355512772e-09</v>
+        <v>1.032613311946624e-09</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>1.105566069536626e-09</v>
+        <v>1.109053267893162e-09</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>1.188407517909961e-09</v>
+        <v>1.191944891893911e-09</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>1.277889393458133e-09</v>
+        <v>1.281426583972241e-09</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>1.374157389006276e-09</v>
+        <v>1.377636744151295e-09</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>1.4773571973795e-09</v>
+        <v>1.480713772454194e-09</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>1.587634511403196e-09</v>
+        <v>1.590796068904342e-09</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>1.705135023902482e-09</v>
+        <v>1.708022033524867e-09</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>1.830004427702445e-09</v>
+        <v>1.832530066338869e-09</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>1.961969054390761e-09</v>
+        <v>1.964042601847424e-09</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>2.098840127881979e-09</v>
+        <v>2.100382474178672e-09</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>2.237882495362541e-09</v>
+        <v>2.238830564937116e-09</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>2.376360962789393e-09</v>
+        <v>2.376667714831618e-09</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>2.511540336118982e-09</v>
+        <v>2.511174764570542e-09</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>2.64068542130825e-09</v>
+        <v>2.639632554862746e-09</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>2.761061024313765e-09</v>
+        <v>2.759321926416714e-09</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>2.869931951092128e-09</v>
+        <v>2.867523719940964e-09</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>2.964563007600233e-09</v>
+        <v>2.961518776144303e-09</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>3.042218999794666e-09</v>
+        <v>3.038587935735237e-09</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>3.100164733632081e-09</v>
+        <v>3.096012039422334e-09</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>3.135665015069278e-09</v>
+        <v>3.13107192791431e-09</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>3.145984650062886e-09</v>
+        <v>3.141048441919711e-09</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>3.128388444569631e-09</v>
+        <v>3.123222422147178e-09</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>3.080141204546174e-09</v>
+        <v>3.074874709305289e-09</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>2.998507735949215e-09</v>
+        <v>2.993286144102659e-09</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>2.880752844735566e-09</v>
+        <v>2.875737567248018e-09</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>2.725102315090485e-09</v>
+        <v>2.720465837329495e-09</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>2.536224399396194e-09</v>
+        <v>2.532117026590093e-09</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>2.321435516616463e-09</v>
+        <v>2.317971704626301e-09</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>2.088060226714682e-09</v>
+        <v>2.085318540012257e-09</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>1.843423089655046e-09</v>
+        <v>1.841446201322901e-09</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>1.594848665400893e-09</v>
+        <v>1.593643357132318e-09</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>1.349661513916225e-09</v>
+        <v>1.349198676015256e-09</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>1.115186195165033e-09</v>
+        <v>1.11540082654645e-09</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>8.987472691106732e-10</v>
+        <v>8.995384773000064e-10</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>7.076692957171493e-10</v>
+        <v>7.089002968506713e-10</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>5.492711360363998e-10</v>
+        <v>5.507692861905698e-10</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>4.277150619638357e-10</v>
+        <v>4.292892103219411e-10</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>3.38770370394983e-10</v>
+        <v>3.402569991426419e-10</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>2.768268617525739e-10</v>
+        <v>2.78097669779949e-10</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>2.362743364591878e-10</v>
+        <v>2.372362393609866e-10</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>2.115025949375955e-10</v>
+        <v>2.120977250130706e-10</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>1.969014376104432e-10</v>
+        <v>1.971071438633917e-10</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>1.868791961040753e-10</v>
+        <v>1.867079230745889e-10</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>1.776852163882201e-10</v>
+        <v>1.77172466484166e-10</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>1.689466197296838e-10</v>
+        <v>1.681288672828833e-10</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>1.606523676823197e-10</v>
+        <v>1.595646930172633e-10</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>1.527914217999793e-10</v>
+        <v>1.514675112338271e-10</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>1.453527436364932e-10</v>
+        <v>1.438248894790737e-10</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>1.383252947457133e-10</v>
+        <v>1.366243952995246e-10</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>1.316980366814901e-10</v>
+        <v>1.298535962416995e-10</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>1.254599309976564e-10</v>
+        <v>1.235000598521e-10</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>1.19599939248063e-10</v>
+        <v>1.175513536772461e-10</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>1.141070229865594e-10</v>
+        <v>1.119950452636566e-10</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>1.089701437669803e-10</v>
+        <v>1.068187021578353e-10</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>1.041782631431757e-10</v>
+        <v>1.02009891906301e-10</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>9.972034266899408e-11</v>
+        <v>9.755618205557165e-11</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>9.558534389827205e-11</v>
+        <v>9.344514015215285e-11</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>9.176222838486183e-11</v>
+        <v>8.966433374256597e-11</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>8.823995768260122e-11</v>
+        <v>8.620133037331788e-11</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>8.50074933453385e-11</v>
+        <v>8.304369759092608e-11</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>8.205379692692089e-11</v>
+        <v>8.017900294190677e-11</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>7.936782998118777e-11</v>
+        <v>7.759481397276862e-11</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>7.693855406198664e-11</v>
+        <v>7.527869823002813e-11</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>7.475493072316402e-11</v>
+        <v>7.32182232602009e-11</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>7.280592151856071e-11</v>
+        <v>7.140095660979705e-11</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>7.108048800202348e-11</v>
+        <v>6.981446582533232e-11</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>6.956759172739824e-11</v>
+        <v>6.844631845332168e-11</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>6.825619424852703e-11</v>
+        <v>6.728408204027649e-11</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>6.713525711925687e-11</v>
+        <v>6.631532413271266e-11</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>6.61937418934305e-11</v>
+        <v>6.552761227714234e-11</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>6.542061012489366e-11</v>
+        <v>6.490851402008019e-11</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>6.480482336749155e-11</v>
+        <v>6.444559690804046e-11</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>6.433534317506778e-11</v>
+        <v>6.412642848753611e-11</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>6.400113110146762e-11</v>
+        <v>6.393857630508144e-11</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>6.379114870053594e-11</v>
+        <v>6.386960790719027e-11</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>6.369435752611704e-11</v>
+        <v>6.39070908403763e-11</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>6.369971913205587e-11</v>
+        <v>6.403859265115348e-11</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>6.379619507219698e-11</v>
+        <v>6.425168088603538e-11</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>6.397274690038528e-11</v>
+        <v>6.453392309153619e-11</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>6.421833617046513e-11</v>
+        <v>6.487288681416927e-11</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>6.452192443628168e-11</v>
+        <v>6.525613960044901e-11</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>6.487247325167945e-11</v>
+        <v>6.567124899688901e-11</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>6.52589481244308e-11</v>
+        <v>6.610578705673156e-11</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>6.567445075185302e-11</v>
+        <v>6.655204030572575e-11</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>6.612404987379299e-11</v>
+        <v>6.701593543102538e-11</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>6.661496592914597e-11</v>
+        <v>6.750585164907398e-11</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>6.715441935680862e-11</v>
+        <v>6.803016817631646e-11</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>6.774963059567626e-11</v>
+        <v>6.859726422919643e-11</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>6.840782008464402e-11</v>
+        <v>6.921551902415727e-11</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>6.91362082626088e-11</v>
+        <v>6.989331177764415e-11</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>6.994201556846587e-11</v>
+        <v>7.063902170610054e-11</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>7.083246244111006e-11</v>
+        <v>7.146102802596964e-11</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>7.181476931943879e-11</v>
+        <v>7.236770995369702e-11</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>7.289615664234701e-11</v>
+        <v>7.336744670572589e-11</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>7.408384484872935e-11</v>
+        <v>7.446861749849931e-11</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>7.53850543774837e-11</v>
+        <v>7.567960154846323e-11</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>7.680700566750352e-11</v>
+        <v>7.700877807205952e-11</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>7.835691915768704e-11</v>
+        <v>7.846452628573451e-11</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>8.00420152869288e-11</v>
+        <v>8.005522540593111e-11</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>8.186951449412289e-11</v>
+        <v>8.178925464909173e-11</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>8.384663721816828e-11</v>
+        <v>8.367499323166345e-11</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>8.598060389795923e-11</v>
+        <v>8.572082037008882e-11</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>8.827863497238924e-11</v>
+        <v>8.793511528080976e-11</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>9.07479508803583e-11</v>
+        <v>9.032625718027431e-11</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>9.33957720607601e-11</v>
+        <v>9.290262528492451e-11</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>9.622931895248781e-11</v>
+        <v>9.567259881120188e-11</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>9.925581199444223e-11</v>
+        <v>9.864455697555533e-11</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>1.024824716255137e-10</v>
+        <v>1.018268789944235e-10</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>1.059165182846037e-10</v>
+        <v>1.052279440842563e-10</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>1.095651724106053e-10</v>
+        <v>1.088561314614947e-10</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>1.134356544424105e-10</v>
+        <v>1.127198203425794e-10</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>1.175351848189221e-10</v>
+        <v>1.168273899439612e-10</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>1.218709839790326e-10</v>
+        <v>1.211872194820807e-10</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>1.264502723616333e-10</v>
+        <v>1.258076881733778e-10</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>1.312802704056283e-10</v>
+        <v>1.306971752343048e-10</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>1.363681985499094e-10</v>
+        <v>1.358640598813015e-10</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>1.417212772333673e-10</v>
+        <v>1.413167213308071e-10</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>1.473467268949074e-10</v>
+        <v>1.470635387992753e-10</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>1.532517679734153e-10</v>
+        <v>1.531128915031398e-10</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>1.594436209077975e-10</v>
+        <v>1.594731586588555e-10</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>1.65929505552875e-10</v>
+        <v>1.661527188527283e-10</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>1.726998785162957e-10</v>
+        <v>1.731418653734873e-10</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>1.796845946052583e-10</v>
+        <v>1.803655102872693e-10</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>1.867998184926596e-10</v>
+        <v>1.877337958396527e-10</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>1.939617148513713e-10</v>
+        <v>1.951568642761891e-10</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>2.010864483542906e-10</v>
+        <v>2.025448578424577e-10</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>2.080901836742953e-10</v>
+        <v>2.098079187840165e-10</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>2.148890854842636e-10</v>
+        <v>2.168561893464246e-10</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>2.213993184570922e-10</v>
+        <v>2.2359981177526e-10</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>2.27537047265659e-10</v>
+        <v>2.299489283160814e-10</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>2.332184365828435e-10</v>
+        <v>2.35813681214449e-10</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>2.383596510815401e-10</v>
+        <v>2.411042127159384e-10</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>2.428768554346278e-10</v>
+        <v>2.457306650661093e-10</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>2.466862143149878e-10</v>
+        <v>2.496031805105238e-10</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>2.497038923955113e-10</v>
+        <v>2.526319012947541e-10</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>2.518460543490772e-10</v>
+        <v>2.547269696643601e-10</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>2.530288648485737e-10</v>
+        <v>2.557985278649109e-10</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>2.531684885668828e-10</v>
+        <v>2.55756718141969e-10</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>2.5218895059468e-10</v>
+        <v>2.545202101239942e-10</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>2.501522783882048e-10</v>
+        <v>2.521573854576468e-10</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>2.47238233380063e-10</v>
+        <v>2.48864349623456e-10</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>2.436303516536513e-10</v>
+        <v>2.448413030360165e-10</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>2.395121692923561e-10</v>
+        <v>2.402884461099122e-10</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>2.350672223795735e-10</v>
+        <v>2.354059792597371e-10</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>2.304790469987008e-10</v>
+        <v>2.303941029000869e-10</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>2.25931179233123e-10</v>
+        <v>2.254530174455434e-10</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>2.216071551662408e-10</v>
+        <v>2.207829233107061e-10</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>2.176905108814395e-10</v>
+        <v>2.165840209101574e-10</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>2.143647824621164e-10</v>
+        <v>2.130565106584927e-10</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>2.118135059916665e-10</v>
+        <v>2.104005929703049e-10</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>2.102202175534781e-10</v>
+        <v>2.088164682601802e-10</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>2.097684532309471e-10</v>
+        <v>2.085043369427122e-10</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>2.106408781240137e-10</v>
+        <v>2.096634711320957e-10</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>2.128706432694978e-10</v>
+        <v>2.123337897842847e-10</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>2.161731099736291e-10</v>
+        <v>2.162165092865949e-10</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>2.202229866688871e-10</v>
+        <v>2.209695179026292e-10</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>2.246949817877629e-10</v>
+        <v>2.262507038960042e-10</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>2.292638037627327e-10</v>
+        <v>2.317179555303184e-10</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>2.336041610262886e-10</v>
+        <v>2.370291610691895e-10</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>2.373907620109099e-10</v>
+        <v>2.418422087762201e-10</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>2.402983151490802e-10</v>
+        <v>2.458149869150179e-10</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>2.420124942304205e-10</v>
+        <v>2.486152284023022e-10</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>2.425641992111864e-10</v>
+        <v>2.502206088054014e-10</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>2.42390835736943e-10</v>
+        <v>2.509737628488765e-10</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>2.419531333823816e-10</v>
+        <v>2.512382653861535e-10</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>2.417118217221938e-10</v>
+        <v>2.513776912706569e-10</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>2.421276303310709e-10</v>
+        <v>2.517556153558113e-10</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>2.436612887837053e-10</v>
+        <v>2.527356124950426e-10</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>2.467263241558082e-10</v>
+        <v>2.546495119448806e-10</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>2.509385779770012e-10</v>
+        <v>2.572926670476091e-10</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>2.552494496374155e-10</v>
+        <v>2.600135668316292e-10</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>2.585900640662869e-10</v>
+        <v>2.621470649272864e-10</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>2.598915461928548e-10</v>
+        <v>2.630280149649282e-10</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>2.583777259641693e-10</v>
+        <v>2.621595365445631e-10</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>2.545821172159454e-10</v>
+        <v>2.597976411404944e-10</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>2.494043917822781e-10</v>
+        <v>2.564088317693533e-10</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>2.437442385652992e-10</v>
+        <v>2.52459621259595e-10</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>2.383569361118062e-10</v>
+        <v>2.483449808013973e-10</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>2.333539737249663e-10</v>
+        <v>2.441409450579237e-10</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>2.286675055769775e-10</v>
+        <v>2.398347051392553e-10</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>2.242296782459395e-10</v>
+        <v>2.354134483933185e-10</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>2.199726383099398e-10</v>
+        <v>2.308643621680277e-10</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>2.158285323470783e-10</v>
+        <v>2.261746338113093e-10</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>2.11729506935454e-10</v>
+        <v>2.2133145067109e-10</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>2.076077086531555e-10</v>
+        <v>2.163220000952836e-10</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>2.03395284078286e-10</v>
+        <v>2.111334694318215e-10</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>1.990243797889333e-10</v>
+        <v>2.057530460286167e-10</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>1.944271423631971e-10</v>
+        <v>2.001679172335963e-10</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>1.895357183791729e-10</v>
+        <v>1.943652703946826e-10</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>1.842822544149612e-10</v>
+        <v>1.883322928598036e-10</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>1.786027670754889e-10</v>
+        <v>1.820583671213691e-10</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>1.725267267431682e-10</v>
+        <v>1.755858842306425e-10</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>1.661795947479501e-10</v>
+        <v>1.69011682923366e-10</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>1.59691209994804e-10</v>
+        <v>1.624350849696761e-10</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>1.531914113887e-10</v>
+        <v>1.559554121397089e-10</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>1.468100378345906e-10</v>
+        <v>1.496719862035831e-10</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>1.406769282374459e-10</v>
+        <v>1.436841289314352e-10</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>1.34921921502235e-10</v>
+        <v>1.380911620934004e-10</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>1.296748565339117e-10</v>
+        <v>1.329924074595992e-10</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>1.250655722374456e-10</v>
+        <v>1.284871868001671e-10</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>1.21223907517804e-10</v>
+        <v>1.246748218852378e-10</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>1.182797012799442e-10</v>
+        <v>1.216546344849349e-10</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>1.163627924288353e-10</v>
+        <v>1.19525946369394e-10</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>1.15589157636281e-10</v>
+        <v>1.183864117356832e-10</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>1.159962443605327e-10</v>
+        <v>1.183242380200728e-10</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>1.175938791107336e-10</v>
+        <v>1.194243099654322e-10</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>1.203918578694627e-10</v>
+        <v>1.217715086424062e-10</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>1.243999766192955e-10</v>
+        <v>1.25450715121637e-10</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>1.29628031342803e-10</v>
+        <v>1.305468104737623e-10</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>1.360858180225711e-10</v>
+        <v>1.371446757694339e-10</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>1.437831326411718e-10</v>
+        <v>1.453291920792906e-10</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>1.527297791400983e-10</v>
+        <v>1.551852482302546e-10</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>1.643723075067703e-10</v>
+        <v>1.681978991024318e-10</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>1.856020528624926e-10</v>
+        <v>1.911583588188493e-10</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>2.245086409095651e-10</v>
+        <v>2.320228459692145e-10</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>2.832816223923794e-10</v>
+        <v>2.928182245940613e-10</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>3.547136986634862e-10</v>
+        <v>3.661278767295657e-10</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>4.307590849041351e-10</v>
+        <v>4.436925371862898e-10</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>5.033719962953802e-10</v>
+        <v>5.172529407745952e-10</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>5.645066480182894e-10</v>
+        <v>5.78549822304859e-10</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>6.062160271220445e-10</v>
+        <v>6.194276820664458e-10</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>6.268507814755465e-10</v>
+        <v>6.383470721050409e-10</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>6.34742666347176e-10</v>
+        <v>6.44254266868765e-10</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>6.39108232337914e-10</v>
+        <v>6.470250687498055e-10</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>6.491640300487074e-10</v>
+        <v>6.565352801403223e-10</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>6.731735959484662e-10</v>
+        <v>6.816218813160456e-10</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>7.10147961795399e-10</v>
+        <v>7.210362659882837e-10</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>7.538951804849921e-10</v>
+        <v>7.678583804761382e-10</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>7.981653225483521e-10</v>
+        <v>8.151049680879121e-10</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>8.36708458516709e-10</v>
+        <v>8.557927721320398e-10</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>8.636683488134655e-10</v>
+        <v>8.833947539872363e-10</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>8.77617371793328e-10</v>
+        <v>8.965158724919745e-10</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>8.799163249699296e-10</v>
+        <v>8.969923790149038e-10</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>8.719694859693138e-10</v>
+        <v>8.867109108080108e-10</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>8.551811324174985e-10</v>
+        <v>8.675581051232494e-10</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>8.309545172523589e-10</v>
+        <v>8.414142500548171e-10</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>8.00645898188836e-10</v>
+        <v>8.098684425843432e-10</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>7.655459852134393e-10</v>
+        <v>7.741036338184739e-10</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>7.269406238685891e-10</v>
+        <v>7.352726338661836e-10</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>6.861156596967188e-10</v>
+        <v>6.945282528364576e-10</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>6.443569382401487e-10</v>
+        <v>6.530233008381693e-10</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>6.029503050413482e-10</v>
+        <v>6.119105879803397e-10</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>5.631655689843641e-10</v>
+        <v>5.723287459419015e-10</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>5.25712648515405e-10</v>
+        <v>5.349213925895487e-10</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>4.906089037240483e-10</v>
+        <v>4.997198367931564e-10</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>4.578287477603784e-10</v>
+        <v>4.667174169076336e-10</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>4.273465937745748e-10</v>
+        <v>4.359074712879849e-10</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>3.991368549168096e-10</v>
+        <v>4.072833382892074e-10</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>3.731739443371792e-10</v>
+        <v>3.808383562662216e-10</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>3.494322751858572e-10</v>
+        <v>3.565658635740266e-10</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>3.278862606130094e-10</v>
+        <v>3.344591985676134e-10</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>3.085103137687441e-10</v>
+        <v>3.145116996019143e-10</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>2.912788478032439e-10</v>
+        <v>2.967167050319376e-10</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>2.761662758666247e-10</v>
+        <v>2.810675532126231e-10</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>2.631470111090504e-10</v>
+        <v>2.675575824989603e-10</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>2.521878827575505e-10</v>
+        <v>2.561720897932059e-10</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>2.430499985170857e-10</v>
+        <v>2.466782395262685e-10</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>2.352696948329565e-10</v>
+        <v>2.386048646707594e-10</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>2.28371904910373e-10</v>
+        <v>2.314687070144815e-10</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>2.218815619545185e-10</v>
+        <v>2.247865083452098e-10</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>2.153235991705946e-10</v>
+        <v>2.180750104507384e-10</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>2.082229497638033e-10</v>
+        <v>2.108509551188615e-10</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>2.001045469393275e-10</v>
+        <v>2.026310841373541e-10</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>1.904936942939028e-10</v>
+        <v>1.929325118738084e-10</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>1.79210178781057e-10</v>
+        <v>1.815685758533204e-10</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>1.668973891003595e-10</v>
+        <v>1.691810811666758e-10</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>1.543415943542831e-10</v>
+        <v>1.565555574416071e-10</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>1.423290636453015e-10</v>
+        <v>1.444775343058475e-10</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>1.316460660758558e-10</v>
+        <v>1.337325413870975e-10</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>1.230788707484268e-10</v>
+        <v>1.251061083130978e-10</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>1.17413746765462e-10</v>
+        <v>1.193837647115551e-10</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>1.154369632294334e-10</v>
+        <v>1.173510402102011e-10</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>1.179347892427998e-10</v>
+        <v>1.197934644367541e-10</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>1.256934939080284e-10</v>
+        <v>1.274965670189409e-10</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>1.394993463275824e-10</v>
+        <v>1.412458775844842e-10</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>1.601386156039032e-10</v>
+        <v>1.61826925761085e-10</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>1.883975708394907e-10</v>
+        <v>1.900252411765027e-10</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>2.254662289206197e-10</v>
+        <v>2.270375032659256e-10</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>2.77586736576492e-10</v>
+        <v>2.792051434495564e-10</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>3.544394338864018e-10</v>
+        <v>3.563708198802202e-10</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>4.657705581862122e-10</v>
+        <v>4.684442960805757e-10</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>6.213263468121373e-10</v>
+        <v>6.253353355736347e-10</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>8.30853037100114e-10</v>
+        <v>8.369537018821308e-10</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>1.093774962057544e-09</v>
+        <v>1.102712100296434e-09</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>1.315158071872907e-09</v>
+        <v>1.326063672092775e-09</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>1.349499055537084e-09</v>
+        <v>1.359034180162252e-09</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>1.212367559515018e-09</v>
+        <v>1.217253318807423e-09</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>1.264362277071624e-09</v>
+        <v>1.267147355069001e-09</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>1.438032887780072e-09</v>
+        <v>1.440921758205017e-09</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>1.612242693090793e-09</v>
+        <v>1.616298373698077e-09</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>1.676735390883156e-09</v>
+        <v>1.681934012512546e-09</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>1.635950148170023e-09</v>
+        <v>1.641756193263968e-09</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>1.56308456334968e-09</v>
+        <v>1.56879571390979e-09</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>1.531570125874945e-09</v>
+        <v>1.536327252933261e-09</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>1.562436324077625e-09</v>
+        <v>1.565622417796311e-09</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>1.591231907628288e-09</v>
+        <v>1.593107946518023e-09</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>1.587240486304683e-09</v>
+        <v>1.588432006529085e-09</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>1.555289256316454e-09</v>
+        <v>1.556299319028826e-09</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>1.501318592680303e-09</v>
+        <v>1.502512530795303e-09</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>1.431268870413004e-09</v>
+        <v>1.432874288606656e-09</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>1.351080464531394e-09</v>
+        <v>1.353187239241082e-09</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>1.266693750052084e-09</v>
+        <v>1.269254029476552e-09</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>1.183825902387587e-09</v>
+        <v>1.186661699469552e-09</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>1.10499280583829e-09</v>
+        <v>1.107904902345303e-09</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>1.030314922297647e-09</v>
+        <v>1.03316435821694e-09</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>9.598549487112072e-10</v>
+        <v>9.625649873438868e-10</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>8.936755820245021e-10</v>
+        <v>8.962317099855532e-10</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>8.318395191828876e-10</v>
+        <v>8.342894464011705e-10</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>7.744094571319503e-10</v>
+        <v>7.768631168502022e-10</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>7.214480928170607e-10</v>
+        <v>7.240776415918952e-10</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>6.730187903143055e-10</v>
+        <v>6.760584119578259e-10</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>6.293740765347931e-10</v>
+        <v>6.330643903568199e-10</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>5.912147957175977e-10</v>
+        <v>5.956711036456606e-10</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>5.593067444337495e-10</v>
+        <v>5.644999426213451e-10</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>5.344157192542563e-10</v>
+        <v>5.401722980808478e-10</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>5.172209043118692e-10</v>
+        <v>5.232295135665662e-10</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>5.069456924845017e-10</v>
+        <v>5.128674896853643e-10</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>5.016049968655265e-10</v>
+        <v>5.071652494811665e-10</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>4.991771185224835e-10</v>
+        <v>5.041679791470782e-10</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>4.976403585229302e-10</v>
+        <v>5.019208648762227e-10</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>4.94973017934414e-10</v>
+        <v>4.98469092861712e-10</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>4.891533978244852e-10</v>
+        <v>4.918578492966619e-10</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>4.783893529173293e-10</v>
+        <v>4.803604276689778e-10</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>4.632273815070974e-10</v>
+        <v>4.645740298112983e-10</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>4.45579597479213e-10</v>
+        <v>4.464528687353167e-10</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>4.273752278488001e-10</v>
+        <v>4.279681627567512e-10</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>4.105434996309322e-10</v>
+        <v>4.110911301912683e-10</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>3.970043428000842e-10</v>
+        <v>3.977832088230944e-10</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>3.872498046276558e-10</v>
+        <v>3.885036969630042e-10</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>3.788187446562743e-10</v>
+        <v>3.806051252227591e-10</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>3.690155958294849e-10</v>
+        <v>3.71196099607242e-10</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>3.569685426558686e-10</v>
+        <v>3.593411946896261e-10</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>3.431400613979045e-10</v>
+        <v>3.455360093018567e-10</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>3.280231588611604e-10</v>
+        <v>3.303088861998879e-10</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>3.121108418512188e-10</v>
+        <v>3.141881681396894e-10</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>2.958961171736184e-10</v>
+        <v>2.977021978771854e-10</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>2.798719916339554e-10</v>
+        <v>2.813793181683592e-10</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>2.645286621791491e-10</v>
+        <v>2.657448660917778e-10</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>2.501663265832266e-10</v>
+        <v>2.511209385316353e-10</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>2.367776667478427e-10</v>
+        <v>2.375006857524042e-10</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>2.24327329428215e-10</v>
+        <v>2.248472691058476e-10</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>2.127799613795976e-10</v>
+        <v>2.131238499437658e-10</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>2.021002093572413e-10</v>
+        <v>2.022935896179554e-10</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>1.922527201163687e-10</v>
+        <v>1.923196494801845e-10</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>1.832021404122313e-10</v>
+        <v>1.831651908822507e-10</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>1.749131170000781e-10</v>
+        <v>1.747933751759487e-10</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>1.673502966351357e-10</v>
+        <v>1.67167363713051e-10</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>1.604783260726593e-10</v>
+        <v>1.602503178453588e-10</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>1.542618520678784e-10</v>
+        <v>1.540053989246471e-10</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>1.486655213760411e-10</v>
+        <v>1.483957683027101e-10</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>1.436539807523932e-10</v>
+        <v>1.433845873313394e-10</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>1.391918769521676e-10</v>
+        <v>1.389350173623135e-10</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>1.352438567306104e-10</v>
+        <v>1.350102197474247e-10</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>1.317745668429664e-10</v>
+        <v>1.315733558384633e-10</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>1.287486540444709e-10</v>
+        <v>1.285875869872107e-10</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>1.26130765090369e-10</v>
+        <v>1.260160745454576e-10</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>1.23885546735904e-10</v>
+        <v>1.238219798649934e-10</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>1.219776457363138e-10</v>
+        <v>1.219684642976016e-10</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>1.203717088468434e-10</v>
+        <v>1.20418689195073e-10</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>1.190323828227316e-10</v>
+        <v>1.191358159091925e-10</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>1.179243144192217e-10</v>
+        <v>1.18083005791749e-10</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>1.170121503915552e-10</v>
+        <v>1.172234201945299e-10</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>1.162605374949745e-10</v>
+        <v>1.165202204693235e-10</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>1.156341224847198e-10</v>
+        <v>1.159365679679158e-10</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>1.151017749596849e-10</v>
+        <v>1.154400701278579e-10</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>1.146558818959152e-10</v>
+        <v>1.15023095018249e-10</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>1.142969689384814e-10</v>
+        <v>1.146865796308078e-10</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>1.140255695969929e-10</v>
+        <v>1.144314692375528e-10</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>1.138422173810583e-10</v>
+        <v>1.142587091105022e-10</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>1.13747445800287e-10</v>
+        <v>1.141692445216749e-10</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>1.137417883642881e-10</v>
+        <v>1.141640207430893e-10</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>1.138257785826707e-10</v>
+        <v>1.142439830467641e-10</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>1.13999949965044e-10</v>
+        <v>1.144100767047179e-10</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>1.142648360210168e-10</v>
+        <v>1.146632469889689e-10</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>1.146209702601988e-10</v>
+        <v>1.150044391715363e-10</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>1.150688861921985e-10</v>
+        <v>1.154345985244379e-10</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>1.156091173266257e-10</v>
+        <v>1.159546703196931e-10</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>1.162421971730893e-10</v>
+        <v>1.165655998293201e-10</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>1.169686592411977e-10</v>
+        <v>1.172683323253368e-10</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>1.177890370405613e-10</v>
+        <v>1.180638130797631e-10</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>1.187038640807887e-10</v>
+        <v>1.189529873646169e-10</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>1.19713673871488e-10</v>
+        <v>1.199368004519159e-10</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>1.208189999222702e-10</v>
+        <v>1.210161976136804e-10</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>1.220203757427435e-10</v>
+        <v>1.221921241219282e-10</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>1.233183348425159e-10</v>
+        <v>1.234655252486766e-10</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>1.247134107311988e-10</v>
+        <v>1.248373462659465e-10</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>1.262061369183989e-10</v>
+        <v>1.26308532445754e-10</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>1.277970469137279e-10</v>
+        <v>1.278800290601204e-10</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>1.294866742267938e-10</v>
+        <v>1.295527813810628e-10</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>1.312755523672039e-10</v>
+        <v>1.313277346805983e-10</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>1.331642148445706e-10</v>
+        <v>1.332058342307485e-10</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>1.351531951685016e-10</v>
+        <v>1.351880253035306e-10</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>1.372430268486039e-10</v>
+        <v>1.372752531709612e-10</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>1.394342433944905e-10</v>
+        <v>1.394684631050626e-10</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>1.417273783157688e-10</v>
+        <v>1.417686003778515e-10</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>1.441229651220455e-10</v>
+        <v>1.441766102613443e-10</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>1.466215373229342e-10</v>
+        <v>1.466934380275639e-10</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>1.492236284280395e-10</v>
+        <v>1.493200289485243e-10</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>1.519297719469752e-10</v>
+        <v>1.520573282962489e-10</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>1.547516794637927e-10</v>
+        <v>1.54917155200364e-10</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>1.577538795858978e-10</v>
+        <v>1.57962708372391e-10</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>1.610164857046009e-10</v>
+        <v>1.612723471601396e-10</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>1.646196134701149e-10</v>
+        <v>1.649244331088456e-10</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>1.686433785326401e-10</v>
+        <v>1.689973277637319e-10</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>1.731678965423908e-10</v>
+        <v>1.735693926700356e-10</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>1.782732831495708e-10</v>
+        <v>1.787189893729829e-10</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>1.840396540043815e-10</v>
+        <v>1.845244794177982e-10</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>1.905471247570402e-10</v>
+        <v>1.910642243497214e-10</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>1.978758110577494e-10</v>
+        <v>1.984165857139776e-10</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>2.061058285567082e-10</v>
+        <v>2.066599250557886e-10</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>2.153121358374285e-10</v>
+        <v>2.15867514554458e-10</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>2.25477573770789e-10</v>
+        <v>2.260217179765042e-10</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>2.365055493429958e-10</v>
+        <v>2.370265079932855e-10</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>2.48296866703931e-10</v>
+        <v>2.487832886092645e-10</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>2.607523300034353e-10</v>
+        <v>2.611934638288633e-10</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>2.737727433913934e-10</v>
+        <v>2.74158437656547e-10</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>2.872589110176565e-10</v>
+        <v>2.875796140967476e-10</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>3.01111637032074e-10</v>
+        <v>3.013583971538957e-10</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>3.152317255845329e-10</v>
+        <v>3.153961908324587e-10</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>3.295199808248828e-10</v>
+        <v>3.295943991368675e-10</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>3.43877206902973e-10</v>
+        <v>3.43854426071552e-10</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>3.582042079686915e-10</v>
+        <v>3.580776756409809e-10</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>3.724017881718872e-10</v>
+        <v>3.721655518495841e-10</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>3.8637075166241e-10</v>
+        <v>3.860194587017925e-10</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>4.000119025901469e-10</v>
+        <v>3.995408002020735e-10</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>4.133275021403969e-10</v>
+        <v>4.127329295861672e-10</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>4.267878964936524e-10</v>
+        <v>4.260695558934868e-10</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>4.409983333159864e-10</v>
+        <v>4.401599440930718e-10</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>4.565640728654419e-10</v>
+        <v>4.556133718070188e-10</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>4.740903754001033e-10</v>
+        <v>4.730391166574657e-10</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>4.941825011780155e-10</v>
+        <v>4.930464562665104e-10</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>5.174457104572128e-10</v>
+        <v>5.162446682562414e-10</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>5.444852634957946e-10</v>
+        <v>5.43243030248811e-10</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>5.759060067084314e-10</v>
+        <v>5.746503911900233e-10</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>6.12184588228254e-10</v>
+        <v>6.109428068780695e-10</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>6.534886126763015e-10</v>
+        <v>6.522762129018205e-10</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>6.999400523693313e-10</v>
+        <v>6.987592769987766e-10</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>7.51660879624082e-10</v>
+        <v>7.505006669064185e-10</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>8.087730667574352e-10</v>
+        <v>8.076090503623699e-10</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>8.713985860861344e-10</v>
+        <v>8.701930951041163e-10</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>9.396594099269038e-10</v>
+        <v>9.383614688691246e-10</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>1.013677510596655e-09</v>
+        <v>1.012222839395048e-09</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>1.093506190744128e-09</v>
+        <v>1.0918196422574e-09</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>1.178360808754933e-09</v>
+        <v>1.17638611252963e-09</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>1.266896665991605e-09</v>
+        <v>1.264616308107353e-09</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>1.357758815570394e-09</v>
+        <v>1.355194402412764e-09</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>1.449592310607793e-09</v>
+        <v>1.446804568868302e-09</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>1.541042204220054e-09</v>
+        <v>1.538130980896164e-09</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>1.630753549523425e-09</v>
+        <v>1.627857811918546e-09</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>1.717371399634401e-09</v>
+        <v>1.714669235357887e-09</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>1.79954080766923e-09</v>
+        <v>1.797249424636384e-09</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>1.875837317053556e-09</v>
+        <v>1.874207436205834e-09</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>1.943846917946017e-09</v>
+        <v>1.94308294694213e-09</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>2.000418878141922e-09</v>
+        <v>2.000619480674432e-09</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>2.042384905817124e-09</v>
+        <v>2.043541585094838e-09</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>2.06657670914731e-09</v>
+        <v>2.068573807895282e-09</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>2.069825996308235e-09</v>
+        <v>2.072440696767762e-09</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>2.048966131232318e-09</v>
+        <v>2.051868487978454e-09</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>2.003516949818688e-09</v>
+        <v>2.006323136302064e-09</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>1.941147793788972e-09</v>
+        <v>1.943581627565925e-09</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>1.871067527088022e-09</v>
+        <v>1.872990983533545e-09</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>1.802485012972827e-09</v>
+        <v>1.803898225270831e-09</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>1.742743012311213e-09</v>
+        <v>1.743757845366147e-09</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>1.691879859970883e-09</v>
+        <v>1.692616471599582e-09</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>1.648146926624797e-09</v>
+        <v>1.648708462153084e-09</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>1.609795582945739e-09</v>
+        <v>1.610268175208424e-09</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>1.575077199606615e-09</v>
+        <v>1.575529968947493e-09</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>1.542243147280287e-09</v>
+        <v>1.542728201552141e-09</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>1.509544796639648e-09</v>
+        <v>1.510097231204247e-09</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>1.475233518357503e-09</v>
+        <v>1.475871416085603e-09</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>1.437560683106779e-09</v>
+        <v>1.438285114378123e-09</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>1.395081079999173e-09</v>
+        <v>1.395878121584479e-09</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>1.348096613831834e-09</v>
+        <v>1.348948973830305e-09</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>1.29753324962552e-09</v>
+        <v>1.298424419829312e-09</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>1.244317731252136e-09</v>
+        <v>1.245231992328672e-09</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>1.189376802583722e-09</v>
+        <v>1.190299224075691e-09</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>1.133637207492324e-09</v>
+        <v>1.13455364781768e-09</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>1.078025689849835e-09</v>
+        <v>1.0789227963018e-09</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>1.023468993528303e-09</v>
+        <v>1.024334202275363e-09</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>9.708893162530054e-10</v>
+        <v>9.717108613852691e-10</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>9.207680659082976e-10</v>
+        <v>9.215358565629889e-10</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>8.727838378683248e-10</v>
+        <v>8.734910557423775e-10</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>8.265300129694099e-10</v>
+        <v>8.271732818874485e-10</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>7.815999720480056e-10</v>
+        <v>7.821793579623447e-10</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>7.375870959405595e-10</v>
+        <v>7.381061069312048e-10</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>6.940847654834015e-10</v>
+        <v>6.945503517580493e-10</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>6.506863615129802e-10</v>
+        <v>6.51108915407017e-10</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>6.069852648657438e-10</v>
+        <v>6.073786208422473e-10</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>5.625964199472554e-10</v>
+        <v>5.629776513397023e-10</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>5.176460575959662e-10</v>
+        <v>5.180306572439365e-10</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>4.727803563573918e-10</v>
+        <v>4.731773356014695e-10</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>4.286687907542524e-10</v>
+        <v>4.290804598491285e-10</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>3.859808353094276e-10</v>
+        <v>3.864028034238995e-10</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>3.453859645456416e-10</v>
+        <v>3.458071397626131e-10</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>3.075536529857353e-10</v>
+        <v>3.07956242302217e-10</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>2.731533751525393e-10</v>
+        <v>2.735128844796485e-10</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>2.42854605568793e-10</v>
+        <v>2.431398397317533e-10</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>2.172786004163165e-10</v>
+        <v>2.174556322178671e-10</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>1.968383507261171e-10</v>
+        <v>1.968876641657106e-10</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>1.818906311046605e-10</v>
+        <v>1.818117487992471e-10</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>1.727962494342861e-10</v>
+        <v>1.726077496074148e-10</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>1.701764062506437e-10</v>
+        <v>1.699170146934876e-10</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>1.748036138397115e-10</v>
+        <v>1.745300899791442e-10</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>1.858032204381542e-10</v>
+        <v>1.855658643456199e-10</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>2.01637061267467e-10</v>
+        <v>2.014700028413166e-10</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>2.207653671712855e-10</v>
+        <v>2.206865426559703e-10</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>2.416390131207561e-10</v>
+        <v>2.416504210479983e-10</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>2.624927187497475e-10</v>
+        <v>2.6258633312837e-10</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>2.813445079380618e-10</v>
+        <v>2.815082062275731e-10</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>2.962029406093515e-10</v>
+        <v>2.964207626178731e-10</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>3.050765766873276e-10</v>
+        <v>3.053287245715938e-10</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>3.059755177171175e-10</v>
+        <v>3.062383547676041e-10</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>2.985121217689243e-10</v>
+        <v>2.987569097548077e-10</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>2.869309532457863e-10</v>
+        <v>2.871202020140354e-10</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>2.76308791389801e-10</v>
+        <v>2.763956030399425e-10</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>2.714526503841296e-10</v>
+        <v>2.713825651244254e-10</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>2.721082043975047e-10</v>
+        <v>2.718538325531386e-10</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>2.735236308835896e-10</v>
+        <v>2.731154268305705e-10</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>2.707906042690206e-10</v>
+        <v>2.70317937299624e-10</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>2.601106415117213e-10</v>
+        <v>2.59705658277324e-10</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>2.423834261552598e-10</v>
+        <v>2.421527374329654e-10</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>2.197516100991272e-10</v>
+        <v>2.197582175315213e-10</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>1.943578531549457e-10</v>
+        <v>1.946211491350504e-10</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>1.683448151343474e-10</v>
+        <v>1.688405828056214e-10</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>1.438550112672893e-10</v>
+        <v>1.445154281648332e-10</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>1.225125534619509e-10</v>
+        <v>1.23239247203659e-10</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>1.042583648642289e-10</v>
+        <v>1.049648032970416e-10</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>8.869235036086616e-11</v>
+        <v>8.931242991057464e-11</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>7.541441483865547e-11</v>
+        <v>7.590246050990219e-11</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>6.402446318438166e-11</v>
+        <v>6.435522856066022e-11</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>5.412240028479969e-11</v>
+        <v>5.429106752845443e-11</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>4.530813993578949e-11</v>
+        <v>4.533031979406428e-11</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>3.75969245470455e-11</v>
+        <v>3.750891736636007e-11</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>3.193672907769356e-11</v>
+        <v>3.1788161345264e-11</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>2.812927319944354e-11</v>
+        <v>2.796229780782283e-11</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>2.574570179445081e-11</v>
+        <v>2.559175882736992e-11</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>2.435715974486517e-11</v>
+        <v>2.423697647723308e-11</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>2.353479193284374e-11</v>
+        <v>2.345838283074737e-11</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>2.290877445775364e-11</v>
+        <v>2.287687489180316e-11</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>2.238916254622398e-11</v>
+        <v>2.240002632104161e-11</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>2.196887384689155e-11</v>
+        <v>2.202028571187876e-11</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>2.164083872858204e-11</v>
+        <v>2.173011468685972e-11</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>2.139798756012232e-11</v>
+        <v>2.152197486853064e-11</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>2.123325071033898e-11</v>
+        <v>2.13883278794374e-11</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>2.113955854805818e-11</v>
+        <v>2.132163534212555e-11</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>2.110984144210656e-11</v>
+        <v>2.131435887914104e-11</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>2.113702976131054e-11</v>
+        <v>2.135896011302959e-11</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>2.121405387449662e-11</v>
+        <v>2.144790066633707e-11</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>2.133384415049114e-11</v>
+        <v>2.157364216160913e-11</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>2.148933422212955e-11</v>
+        <v>2.172865141744773e-11</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>2.167408493912645e-11</v>
+        <v>2.190639373445338e-11</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>2.188302601785533e-11</v>
+        <v>2.210251354577629e-11</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>2.21112677492213e-11</v>
+        <v>2.231294274561078e-11</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>2.235392042412894e-11</v>
+        <v>2.253361322815072e-11</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>2.26060943334828e-11</v>
+        <v>2.276045688758991e-11</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>2.286289976818808e-11</v>
+        <v>2.298940561812275e-11</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>2.311944701914932e-11</v>
+        <v>2.321639131394306e-11</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>2.337084637727106e-11</v>
+        <v>2.343734586924463e-11</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>2.36122081334585e-11</v>
+        <v>2.364820117822189e-11</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>2.3838642578616e-11</v>
+        <v>2.384488913506846e-11</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>2.404526000364872e-11</v>
+        <v>2.402334163397872e-11</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>2.42271706994612e-11</v>
+        <v>2.417949056914647e-11</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>2.437948495695808e-11</v>
+        <v>2.430926783476563e-11</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>2.449731306704439e-11</v>
+        <v>2.440860532503043e-11</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>2.457576532062475e-11</v>
+        <v>2.447343493413475e-11</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>2.46099520086039e-11</v>
+        <v>2.449968855627259e-11</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>2.459498342188668e-11</v>
+        <v>2.448329808563803e-11</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>2.452596985137777e-11</v>
+        <v>2.442019541642499e-11</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>2.440317812079419e-11</v>
+        <v>2.431108761004067e-11</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>2.42506591428551e-11</v>
+        <v>2.417870679902693e-11</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>2.409931659688555e-11</v>
+        <v>2.405213106728625e-11</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>2.398005479851009e-11</v>
+        <v>2.396043908796137e-11</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>2.392377806335372e-11</v>
+        <v>2.39327095341954e-11</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>2.396139070704129e-11</v>
+        <v>2.399802107913132e-11</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>2.412379704519745e-11</v>
+        <v>2.418545239591189e-11</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>2.444190139344731e-11</v>
+        <v>2.452408215768041e-11</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>2.49466080674151e-11</v>
+        <v>2.504298903757918e-11</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>2.566882138272654e-11</v>
+        <v>2.577125170875213e-11</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>2.663944565500615e-11</v>
+        <v>2.673794884434185e-11</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>2.78893851998775e-11</v>
+        <v>2.797215911749009e-11</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>2.944954433296768e-11</v>
+        <v>2.950296120134203e-11</v>
       </c>
     </row>
   </sheetData>
